--- a/TEL/TEL_Event/Sample/Export_Survey_Model4.xlsx
+++ b/TEL/TEL_Event/Sample/Export_Survey_Model4.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一加科技\客製開發\TEL\TEL_Event\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF57EF3-DB5D-48F2-9CF4-A740D7EEB024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF4D7C3-BE6F-4C4B-9C49-854682223268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{957AA267-31C8-46BA-B1E2-88AB85800AAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="滿意度(講座)" sheetId="1" r:id="rId1"/>
+    <sheet name="滿意度(電腦替換)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -35,111 +23,60 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>工號</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>部門</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中文姓名</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>英文姓名</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>勤務地</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>對於問卷的填寫</t>
+  </si>
+  <si>
+    <t>對於替換的過程</t>
+  </si>
+  <si>
+    <t>對於時間的規劃</t>
+  </si>
+  <si>
+    <t>整體而言，對本次活動滿意程度</t>
   </si>
   <si>
     <t>建議與想法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>填寫日期時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>整體而言，對本次活動滿意程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>對於時間的規劃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>對於問卷的填寫</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>對於替換的過程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei, Georgia"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei Light"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -152,8 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -171,24 +107,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,104 +427,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B493E34B-552F-4D57-BFF2-03A3FC6A4839}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="15.69921875" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="20.69921875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="35.69921875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.69921875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.69921875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="15.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TEL/TEL_Event/Sample/Export_Survey_Model4.xlsx
+++ b/TEL/TEL_Event/Sample/Export_Survey_Model4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一加科技\客製開發\TEL\TEL_Event\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEF4D7C3-BE6F-4C4B-9C49-854682223268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E2C21-F24F-43A1-ACA3-A81861EDAA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="滿意度(電腦替換)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>工號</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>勤務地</t>
-  </si>
-  <si>
-    <t>對於問卷的填寫</t>
   </si>
   <si>
     <t>對於替換的過程</t>
@@ -428,23 +425,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.69921875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="15.69921875" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="20.69921875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.69921875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.69921875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.69921875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="15.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="20.75" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5">
+    <row r="1" spans="1:10" ht="31.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,9 +473,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
